--- a/Code/Results/Cases/Case_3_180/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_180/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7614865100704549</v>
+        <v>0.254807068827688</v>
       </c>
       <c r="C2">
-        <v>0.1113085602538604</v>
+        <v>0.03462305078646466</v>
       </c>
       <c r="D2">
-        <v>0.2674071483339162</v>
+        <v>0.3246647646638934</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.58324450639752</v>
+        <v>1.153364769363847</v>
       </c>
       <c r="G2">
-        <v>0.2804485949955478</v>
+        <v>0.5311300121076172</v>
       </c>
       <c r="H2">
-        <v>0.2645336829056717</v>
+        <v>0.6793994709831139</v>
       </c>
       <c r="I2">
-        <v>0.2227637678899548</v>
+        <v>0.5333842050699111</v>
       </c>
       <c r="J2">
-        <v>0.199991875197675</v>
+        <v>0.3103747344763192</v>
       </c>
       <c r="K2">
-        <v>0.8120431043401481</v>
+        <v>0.2564386480114536</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3981944183008963</v>
+        <v>0.25780965298393</v>
       </c>
       <c r="N2">
-        <v>0.7332776164090316</v>
+        <v>1.478750237421423</v>
       </c>
       <c r="O2">
-        <v>1.096748212686251</v>
+        <v>2.390655245230036</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6638697567349254</v>
+        <v>0.2247976973724803</v>
       </c>
       <c r="C3">
-        <v>0.09862496393770925</v>
+        <v>0.03057680516899097</v>
       </c>
       <c r="D3">
-        <v>0.2407067433060917</v>
+        <v>0.3190469541088419</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5629919004698394</v>
+        <v>1.155981217636395</v>
       </c>
       <c r="G3">
-        <v>0.2734463805236942</v>
+        <v>0.5335638120934902</v>
       </c>
       <c r="H3">
-        <v>0.2660982578879185</v>
+        <v>0.6836822485096761</v>
       </c>
       <c r="I3">
-        <v>0.2266932459352624</v>
+        <v>0.538111486021382</v>
       </c>
       <c r="J3">
-        <v>0.1857247796523396</v>
+        <v>0.3086961498681049</v>
       </c>
       <c r="K3">
-        <v>0.7094892288590557</v>
+        <v>0.2245925248018779</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.348155422089917</v>
+        <v>0.2444567547744541</v>
       </c>
       <c r="N3">
-        <v>0.7633375819569785</v>
+        <v>1.492251139426243</v>
       </c>
       <c r="O3">
-        <v>1.084876302686212</v>
+        <v>2.404560657822174</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6038857114776874</v>
+        <v>0.2063518030923035</v>
       </c>
       <c r="C4">
-        <v>0.09082287467141725</v>
+        <v>0.02807885534635091</v>
       </c>
       <c r="D4">
-        <v>0.2245148182966688</v>
+        <v>0.3157362711638712</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.551497405166451</v>
+        <v>1.158146832517097</v>
       </c>
       <c r="G4">
-        <v>0.2697327552547293</v>
+        <v>0.535366901839744</v>
       </c>
       <c r="H4">
-        <v>0.267440589270052</v>
+        <v>0.6865612490395776</v>
       </c>
       <c r="I4">
-        <v>0.229535143039687</v>
+        <v>0.5412616103085988</v>
       </c>
       <c r="J4">
-        <v>0.1772367944437789</v>
+        <v>0.3078216805867342</v>
       </c>
       <c r="K4">
-        <v>0.6464500158332527</v>
+        <v>0.204994971019488</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3175836656506092</v>
+        <v>0.2363523195937347</v>
       </c>
       <c r="N4">
-        <v>0.7826371484888401</v>
+        <v>1.500991646582598</v>
       </c>
       <c r="O4">
-        <v>1.079619891381256</v>
+        <v>2.414267410972485</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5794250614997907</v>
+        <v>0.1988304514089521</v>
       </c>
       <c r="C5">
-        <v>0.08763915983620052</v>
+        <v>0.02705757542928211</v>
       </c>
       <c r="D5">
-        <v>0.2179642332779963</v>
+        <v>0.3144221657083648</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5470403937852311</v>
+        <v>1.159170095550387</v>
       </c>
       <c r="G5">
-        <v>0.2683604501030104</v>
+        <v>0.5361793252204663</v>
       </c>
       <c r="H5">
-        <v>0.2680808592748534</v>
+        <v>0.6877972450058394</v>
       </c>
       <c r="I5">
-        <v>0.2307977761934819</v>
+        <v>0.5426075874177201</v>
       </c>
       <c r="J5">
-        <v>0.1738426814260805</v>
+        <v>0.3075046524996665</v>
       </c>
       <c r="K5">
-        <v>0.6207380572563324</v>
+        <v>0.196998308352903</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.30515928597314</v>
+        <v>0.2330736455981324</v>
       </c>
       <c r="N5">
-        <v>0.7907093466146442</v>
+        <v>1.504666908724419</v>
       </c>
       <c r="O5">
-        <v>1.077970086046051</v>
+        <v>2.418517082629648</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5753622459866961</v>
+        <v>0.197581280609171</v>
       </c>
       <c r="C6">
-        <v>0.08711022700281035</v>
+        <v>0.02688779238856398</v>
       </c>
       <c r="D6">
-        <v>0.2168793099587845</v>
+        <v>0.3142060794191224</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5463137568938166</v>
+        <v>1.159348513871947</v>
       </c>
       <c r="G6">
-        <v>0.2681409190914579</v>
+        <v>0.5363189178766632</v>
       </c>
       <c r="H6">
-        <v>0.2681927309180594</v>
+        <v>0.6880062752048559</v>
       </c>
       <c r="I6">
-        <v>0.2310136527438278</v>
+        <v>0.5428348479745715</v>
       </c>
       <c r="J6">
-        <v>0.1732829034339787</v>
+        <v>0.3074543868561008</v>
       </c>
       <c r="K6">
-        <v>0.6164670730349116</v>
+        <v>0.1956698502967242</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3030981458252811</v>
+        <v>0.2325306777154879</v>
       </c>
       <c r="N6">
-        <v>0.7920621337953229</v>
+        <v>1.505284035939976</v>
       </c>
       <c r="O6">
-        <v>1.077725325668169</v>
+        <v>2.419240505427751</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6035559002964987</v>
+        <v>0.2062503850262374</v>
       </c>
       <c r="C7">
-        <v>0.09077995628810243</v>
+        <v>0.02806509547205849</v>
       </c>
       <c r="D7">
-        <v>0.2244262854508463</v>
+        <v>0.3157184066595562</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5514363890912506</v>
+        <v>1.158160062458627</v>
       </c>
       <c r="G7">
-        <v>0.2697136849516895</v>
+        <v>0.53537754404163</v>
       </c>
       <c r="H7">
-        <v>0.2674488500799654</v>
+        <v>0.6865776638181487</v>
       </c>
       <c r="I7">
-        <v>0.2295517524617345</v>
+        <v>0.5412795104388337</v>
       </c>
       <c r="J7">
-        <v>0.1771907624873919</v>
+        <v>0.3078172457418589</v>
       </c>
       <c r="K7">
-        <v>0.646103355006062</v>
+        <v>0.2048871670307477</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3174159747703769</v>
+        <v>0.236308004966304</v>
       </c>
       <c r="N7">
-        <v>0.7827451786450244</v>
+        <v>1.5010407530902</v>
       </c>
       <c r="O7">
-        <v>1.079595673057</v>
+        <v>2.41432353251075</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7278349678448421</v>
+        <v>0.244464303735441</v>
       </c>
       <c r="C8">
-        <v>0.1069377870243358</v>
+        <v>0.03323074967494222</v>
       </c>
       <c r="D8">
-        <v>0.2581569626118068</v>
+        <v>0.3226990513596206</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5760603516452676</v>
+        <v>1.154150975961521</v>
       </c>
       <c r="G8">
-        <v>0.2779088034289217</v>
+        <v>0.5319051200499985</v>
       </c>
       <c r="H8">
-        <v>0.2649922615795361</v>
+        <v>0.6808244644414003</v>
       </c>
       <c r="I8">
-        <v>0.2240274985294306</v>
+        <v>0.5349628074344785</v>
       </c>
       <c r="J8">
-        <v>0.1950138916204551</v>
+        <v>0.3097635705930841</v>
       </c>
       <c r="K8">
-        <v>0.7766939656783762</v>
+        <v>0.2454675317776349</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3809065802277587</v>
+        <v>0.253186139906262</v>
       </c>
       <c r="N8">
-        <v>0.7434646969946908</v>
+        <v>1.483311796858032</v>
       </c>
       <c r="O8">
-        <v>1.092221159094493</v>
+        <v>2.39520736665925</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9714169355075626</v>
+        <v>0.3192229092908008</v>
       </c>
       <c r="C9">
-        <v>0.1385449858112935</v>
+        <v>0.04325100525190351</v>
       </c>
       <c r="D9">
-        <v>0.3260567448534601</v>
+        <v>0.3374826234085901</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6322599693883362</v>
+        <v>1.150719107083795</v>
       </c>
       <c r="G9">
-        <v>0.2989232207266355</v>
+        <v>0.5275449638985066</v>
       </c>
       <c r="H9">
-        <v>0.2633315087873456</v>
+        <v>0.6715176957640949</v>
       </c>
       <c r="I9">
-        <v>0.2167586186642687</v>
+        <v>0.5245388688980164</v>
       </c>
       <c r="J9">
-        <v>0.2322956026321634</v>
+        <v>0.3148179406746578</v>
       </c>
       <c r="K9">
-        <v>1.032480993442931</v>
+        <v>0.3246771023196118</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5068379814941153</v>
+        <v>0.2870237038041239</v>
       </c>
       <c r="N9">
-        <v>0.6733271414567348</v>
+        <v>1.452120271055499</v>
       </c>
       <c r="O9">
-        <v>1.134007136547169</v>
+        <v>2.366986896569671</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.150673426559621</v>
+        <v>0.3740174729719854</v>
       </c>
       <c r="C10">
-        <v>0.1617736077808445</v>
+        <v>0.05054385921468452</v>
       </c>
       <c r="D10">
-        <v>0.3772341953613392</v>
+        <v>0.3490050466172079</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6790291367090617</v>
+        <v>1.150891282701956</v>
       </c>
       <c r="G10">
-        <v>0.3178082143968552</v>
+        <v>0.5258348576521925</v>
       </c>
       <c r="H10">
-        <v>0.2642225179174531</v>
+        <v>0.6658798322307575</v>
       </c>
       <c r="I10">
-        <v>0.2138210813968158</v>
+        <v>0.5180756500313386</v>
       </c>
       <c r="J10">
-        <v>0.2613602781379427</v>
+        <v>0.3192844895873606</v>
       </c>
       <c r="K10">
-        <v>1.220625636879959</v>
+        <v>0.3826262996229843</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6005557896240816</v>
+        <v>0.3123260921825164</v>
       </c>
       <c r="N10">
-        <v>0.6262933470010168</v>
+        <v>1.431378778193768</v>
       </c>
       <c r="O10">
-        <v>1.176395099974343</v>
+        <v>2.351893896081776</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.232375874612842</v>
+        <v>0.3989123002062627</v>
       </c>
       <c r="C11">
-        <v>0.1723555431551915</v>
+        <v>0.05384614460081139</v>
       </c>
       <c r="D11">
-        <v>0.4008486866798364</v>
+        <v>0.3543891471336735</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7016487250458141</v>
+        <v>1.151553093930985</v>
       </c>
       <c r="G11">
-        <v>0.3272485365361746</v>
+        <v>0.5253812195225578</v>
       </c>
       <c r="H11">
-        <v>0.2651299642966762</v>
+        <v>0.6635746485373915</v>
       </c>
       <c r="I11">
-        <v>0.2130600249496055</v>
+        <v>0.5153945912105655</v>
       </c>
       <c r="J11">
-        <v>0.2750053626107416</v>
+        <v>0.3214797210896592</v>
       </c>
       <c r="K11">
-        <v>1.306360772912569</v>
+        <v>0.4089312110776291</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6435272212576422</v>
+        <v>0.3239310139986458</v>
       </c>
       <c r="N11">
-        <v>0.6059414995468586</v>
+        <v>1.42241426594699</v>
       </c>
       <c r="O11">
-        <v>1.198521828613167</v>
+        <v>2.346250842878959</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.263344736264713</v>
+        <v>0.4083343139357112</v>
       </c>
       <c r="C12">
-        <v>0.1763659547700769</v>
+        <v>0.05509438603880312</v>
       </c>
       <c r="D12">
-        <v>0.4098433425857309</v>
+        <v>0.3564483179050342</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7104208946394692</v>
+        <v>1.151887466922318</v>
       </c>
       <c r="G12">
-        <v>0.3309543652663223</v>
+        <v>0.5252560674900622</v>
       </c>
       <c r="H12">
-        <v>0.2655496559568746</v>
+        <v>0.6627389800674308</v>
       </c>
       <c r="I12">
-        <v>0.2128592782519299</v>
+        <v>0.5144165791618889</v>
       </c>
       <c r="J12">
-        <v>0.2802384857055671</v>
+        <v>0.3223344528100682</v>
       </c>
       <c r="K12">
-        <v>1.338855754528822</v>
+        <v>0.418883592462123</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6598547280464686</v>
+        <v>0.328338910287016</v>
       </c>
       <c r="N12">
-        <v>0.5983910862804933</v>
+        <v>1.419087306475603</v>
       </c>
       <c r="O12">
-        <v>1.207336556990185</v>
+        <v>2.344289650535643</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.256673586811019</v>
+        <v>0.4063053516476316</v>
       </c>
       <c r="C13">
-        <v>0.1755020775559046</v>
+        <v>0.05482565658900285</v>
       </c>
       <c r="D13">
-        <v>0.4079037811145838</v>
+        <v>0.3560039370868822</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7085222405263849</v>
+        <v>1.151811730815695</v>
       </c>
       <c r="G13">
-        <v>0.3301502770618185</v>
+        <v>0.525280947349458</v>
       </c>
       <c r="H13">
-        <v>0.2654558211672651</v>
+        <v>0.6629173003102551</v>
       </c>
       <c r="I13">
-        <v>0.2128985452126493</v>
+        <v>0.514625555162354</v>
       </c>
       <c r="J13">
-        <v>0.2791084173456397</v>
+        <v>0.3221493290801618</v>
       </c>
       <c r="K13">
-        <v>1.331855961748829</v>
+        <v>0.4167405662988415</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.656335747083709</v>
+        <v>0.3273890007077185</v>
       </c>
       <c r="N13">
-        <v>0.6000101441229155</v>
+        <v>1.419800815547948</v>
       </c>
       <c r="O13">
-        <v>1.205418320743377</v>
+        <v>2.344704215782144</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.234923058738417</v>
+        <v>0.3996875608699497</v>
       </c>
       <c r="C14">
-        <v>0.1726854102191311</v>
+        <v>0.05394888389865571</v>
       </c>
       <c r="D14">
-        <v>0.4015876069973672</v>
+        <v>0.3545581498609067</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7023661964771293</v>
+        <v>1.151578925169659</v>
       </c>
       <c r="G14">
-        <v>0.3275507397640638</v>
+        <v>0.5253699886549157</v>
       </c>
       <c r="H14">
-        <v>0.2651629453023219</v>
+        <v>0.6635051513093373</v>
       </c>
       <c r="I14">
-        <v>0.2130417287665551</v>
+        <v>0.5153133831500583</v>
       </c>
       <c r="J14">
-        <v>0.2754345410009904</v>
+        <v>0.3215495707833043</v>
       </c>
       <c r="K14">
-        <v>1.30903352798822</v>
+        <v>0.4097501776233798</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6448693512211037</v>
+        <v>0.3242933879259695</v>
       </c>
       <c r="N14">
-        <v>0.6053171511685669</v>
+        <v>1.422139198080938</v>
       </c>
       <c r="O14">
-        <v>1.199238128045351</v>
+        <v>2.346085973684069</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.221604351385309</v>
+        <v>0.3956332890817293</v>
       </c>
       <c r="C15">
-        <v>0.1709605787180521</v>
+        <v>0.05341153870723758</v>
       </c>
       <c r="D15">
-        <v>0.3977257214879728</v>
+        <v>0.3536752060417712</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6986227594434098</v>
+        <v>1.151447228613549</v>
       </c>
       <c r="G15">
-        <v>0.325975776948404</v>
+        <v>0.525430601650541</v>
       </c>
       <c r="H15">
-        <v>0.2649935741308553</v>
+        <v>0.6638700768148027</v>
       </c>
       <c r="I15">
-        <v>0.2131409660904922</v>
+        <v>0.5157395479698579</v>
       </c>
       <c r="J15">
-        <v>0.2731929419642398</v>
+        <v>0.3211852533293609</v>
       </c>
       <c r="K15">
-        <v>1.295058138106299</v>
+        <v>0.4054672096765728</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6378532342466912</v>
+        <v>0.3223989684330704</v>
       </c>
       <c r="N15">
-        <v>0.608588404273096</v>
+        <v>1.423580342129782</v>
       </c>
       <c r="O15">
-        <v>1.195510160214411</v>
+        <v>2.346955218923654</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.145337761218599</v>
+        <v>0.3723898534397279</v>
       </c>
       <c r="C16">
-        <v>0.161082448801551</v>
+        <v>0.05032773413499569</v>
       </c>
       <c r="D16">
-        <v>0.3756980151837013</v>
+        <v>0.3486560365063127</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6775790629629839</v>
+        <v>1.150859760635882</v>
       </c>
       <c r="G16">
-        <v>0.3172091038536564</v>
+        <v>0.525871029451757</v>
       </c>
       <c r="H16">
-        <v>0.2641736427700536</v>
+        <v>0.6660356980395079</v>
       </c>
       <c r="I16">
-        <v>0.2138827919938215</v>
+        <v>0.51825607623746</v>
       </c>
       <c r="J16">
-        <v>0.2604774923208453</v>
+        <v>0.3191443094902269</v>
       </c>
       <c r="K16">
-        <v>1.215026258899968</v>
+        <v>0.3809060244237514</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5977548637588654</v>
+        <v>0.3115695675056074</v>
       </c>
       <c r="N16">
-        <v>0.6276449242333939</v>
+        <v>1.431974105100135</v>
       </c>
       <c r="O16">
-        <v>1.175008557070143</v>
+        <v>2.352287278068019</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.098596079941359</v>
+        <v>0.3581222735876111</v>
       </c>
       <c r="C17">
-        <v>0.1550271569105632</v>
+        <v>0.04843196147760409</v>
       </c>
       <c r="D17">
-        <v>0.3622732186974815</v>
+        <v>0.3456133195666382</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6650229408832473</v>
+        <v>1.150648710053837</v>
       </c>
       <c r="G17">
-        <v>0.3120547250401842</v>
+        <v>0.5262242763393346</v>
       </c>
       <c r="H17">
-        <v>0.2638019215172207</v>
+        <v>0.6674306583942453</v>
       </c>
       <c r="I17">
-        <v>0.2144884959548996</v>
+        <v>0.5198662371104028</v>
       </c>
       <c r="J17">
-        <v>0.2527889836663491</v>
+        <v>0.3179340670062771</v>
       </c>
       <c r="K17">
-        <v>1.165972361173516</v>
+        <v>0.3658236446810861</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5732470319576493</v>
+        <v>0.304950161541214</v>
       </c>
       <c r="N17">
-        <v>0.6396072352295477</v>
+        <v>1.437244008693838</v>
       </c>
       <c r="O17">
-        <v>1.163178565595686</v>
+        <v>2.35587142585095</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.071725889977614</v>
+        <v>0.349913009769466</v>
       </c>
       <c r="C18">
-        <v>0.151545666263786</v>
+        <v>0.04734012983325897</v>
       </c>
       <c r="D18">
-        <v>0.3545827544643174</v>
+        <v>0.3438766510071076</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6579266573455342</v>
+        <v>1.15058224870166</v>
       </c>
       <c r="G18">
-        <v>0.3091694582307838</v>
+        <v>0.5264579792532373</v>
       </c>
       <c r="H18">
-        <v>0.2636351355762017</v>
+        <v>0.6682574326004271</v>
       </c>
       <c r="I18">
-        <v>0.2148907273938221</v>
+        <v>0.520816746631855</v>
       </c>
       <c r="J18">
-        <v>0.2484062855038616</v>
+        <v>0.3172533481675259</v>
       </c>
       <c r="K18">
-        <v>1.137771214117123</v>
+        <v>0.3571433793660219</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5591822486991163</v>
+        <v>0.3011517870706015</v>
       </c>
       <c r="N18">
-        <v>0.6465855178945752</v>
+        <v>1.440319441222044</v>
       </c>
       <c r="O18">
-        <v>1.15664028536257</v>
+        <v>2.358048039192738</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.062630364212623</v>
+        <v>0.347133008912266</v>
       </c>
       <c r="C19">
-        <v>0.1503670939204511</v>
+        <v>0.04697021024685455</v>
       </c>
       <c r="D19">
-        <v>0.3519841113893989</v>
+        <v>0.3432909549832175</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6555451665650551</v>
+        <v>1.150569184618114</v>
       </c>
       <c r="G19">
-        <v>0.3082059317085353</v>
+        <v>0.526542349755232</v>
       </c>
       <c r="H19">
-        <v>0.2635866262458393</v>
+        <v>0.6685415619092012</v>
       </c>
       <c r="I19">
-        <v>0.2150360243356815</v>
+        <v>0.5211427617280648</v>
       </c>
       <c r="J19">
-        <v>0.2469290166887532</v>
+        <v>0.3170255115591374</v>
       </c>
       <c r="K19">
-        <v>1.128224856075718</v>
+        <v>0.3542035021378922</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5544253703624236</v>
+        <v>0.2998672648300342</v>
       </c>
       <c r="N19">
-        <v>0.6489648700246384</v>
+        <v>1.441368342681887</v>
       </c>
       <c r="O19">
-        <v>1.15447143255787</v>
+        <v>2.358804776697468</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.103570271684589</v>
+        <v>0.3596413892452972</v>
       </c>
       <c r="C20">
-        <v>0.1556716054078322</v>
+        <v>0.04863391854107135</v>
       </c>
       <c r="D20">
-        <v>0.3636990590555484</v>
+        <v>0.3459358340471255</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6663464613265049</v>
+        <v>1.150665492816849</v>
       </c>
       <c r="G20">
-        <v>0.3125951379357232</v>
+        <v>0.5261835134366564</v>
       </c>
       <c r="H20">
-        <v>0.2638365984352404</v>
+        <v>0.6672796345323206</v>
       </c>
       <c r="I20">
-        <v>0.2144184113884009</v>
+        <v>0.5196923087891143</v>
       </c>
       <c r="J20">
-        <v>0.2536033112239977</v>
+        <v>0.3180613078946237</v>
       </c>
       <c r="K20">
-        <v>1.171192795223334</v>
+        <v>0.3674297404772346</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5758526296799289</v>
+        <v>0.3056538859729088</v>
       </c>
       <c r="N20">
-        <v>0.6383236525996026</v>
+        <v>1.436678431219548</v>
       </c>
       <c r="O20">
-        <v>1.164410167151757</v>
+        <v>2.355477975079054</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.241310844051441</v>
+        <v>0.4016315100030567</v>
       </c>
       <c r="C21">
-        <v>0.1735126360657944</v>
+        <v>0.05420647522026911</v>
       </c>
       <c r="D21">
-        <v>0.4034413631385689</v>
+        <v>0.3549822621890257</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7041686579355328</v>
+        <v>1.151645033786451</v>
       </c>
       <c r="G21">
-        <v>0.3283106590770188</v>
+        <v>0.5253425695416212</v>
       </c>
       <c r="H21">
-        <v>0.2652468739001534</v>
+        <v>0.6633314746395627</v>
       </c>
       <c r="I21">
-        <v>0.2129972599523917</v>
+        <v>0.5151103406138233</v>
       </c>
       <c r="J21">
-        <v>0.2765118131215161</v>
+        <v>0.3217250984231725</v>
       </c>
       <c r="K21">
-        <v>1.315736179719522</v>
+        <v>0.4118036655859214</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6482357592331596</v>
+        <v>0.3252022838048489</v>
       </c>
       <c r="N21">
-        <v>0.6037540586284429</v>
+        <v>1.421450520956274</v>
       </c>
       <c r="O21">
-        <v>1.201041351046172</v>
+        <v>2.3456753502455</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.331510366827899</v>
+        <v>0.4290443820277119</v>
       </c>
       <c r="C22">
-        <v>0.1851923623817839</v>
+        <v>0.05783524545302043</v>
       </c>
       <c r="D22">
-        <v>0.4297226784867121</v>
+        <v>0.3610130421593851</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.730098763590334</v>
+        <v>1.152773366551699</v>
       </c>
       <c r="G22">
-        <v>0.3393496063863921</v>
+        <v>0.5250647628137273</v>
       </c>
       <c r="H22">
-        <v>0.266613869088431</v>
+        <v>0.6609682432155921</v>
       </c>
       <c r="I22">
-        <v>0.2125805606755655</v>
+        <v>0.5123328571934245</v>
       </c>
       <c r="J22">
-        <v>0.2918713037048235</v>
+        <v>0.3242562312081816</v>
       </c>
       <c r="K22">
-        <v>1.410376363196008</v>
+        <v>0.4407534999309348</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.695867113415737</v>
+        <v>0.3380560681945255</v>
       </c>
       <c r="N22">
-        <v>0.5820755420944685</v>
+        <v>1.411892846053952</v>
       </c>
       <c r="O22">
-        <v>1.227535801406987</v>
+        <v>2.340292875457692</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.283350369777992</v>
+        <v>0.4144165648078513</v>
       </c>
       <c r="C23">
-        <v>0.1789564993184598</v>
+        <v>0.05589973388474334</v>
       </c>
       <c r="D23">
-        <v>0.4156661987363748</v>
+        <v>0.357783519791667</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7161439461776737</v>
+        <v>1.152126536950107</v>
       </c>
       <c r="G23">
-        <v>0.333384591374184</v>
+        <v>0.5251881649706576</v>
       </c>
       <c r="H23">
-        <v>0.2658421992595237</v>
+        <v>0.6622096984500416</v>
       </c>
       <c r="I23">
-        <v>0.2127544712591636</v>
+        <v>0.5137953913538098</v>
       </c>
       <c r="J23">
-        <v>0.2836364218804448</v>
+        <v>0.322892832004726</v>
       </c>
       <c r="K23">
-        <v>1.359846598390334</v>
+        <v>0.4253073008272565</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6704134060435933</v>
+        <v>0.3311887308019195</v>
       </c>
       <c r="N23">
-        <v>0.5935599209311775</v>
+        <v>1.41695784898625</v>
       </c>
       <c r="O23">
-        <v>1.213152264465919</v>
+        <v>2.343071941465666</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.101321433207062</v>
+        <v>0.35895461770113</v>
       </c>
       <c r="C24">
-        <v>0.1553802510170073</v>
+        <v>0.04854261974917051</v>
       </c>
       <c r="D24">
-        <v>0.3630543508968174</v>
+        <v>0.3457899858973974</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6657477174912074</v>
+        <v>1.15065773439013</v>
       </c>
       <c r="G24">
-        <v>0.3123505748063664</v>
+        <v>0.5262018469770808</v>
       </c>
       <c r="H24">
-        <v>0.263820775139493</v>
+        <v>0.6673478351874778</v>
       </c>
       <c r="I24">
-        <v>0.2144499287646973</v>
+        <v>0.5197708645120898</v>
       </c>
       <c r="J24">
-        <v>0.2532350372291887</v>
+        <v>0.3180037353581895</v>
       </c>
       <c r="K24">
-        <v>1.16883263572646</v>
+        <v>0.3667036531923884</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5746745612649562</v>
+        <v>0.3053357096793334</v>
       </c>
       <c r="N24">
-        <v>0.6389036462123094</v>
+        <v>1.436933986459064</v>
       </c>
       <c r="O24">
-        <v>1.163852543100901</v>
+        <v>2.355655492711207</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9054979786616855</v>
+        <v>0.2990200967434475</v>
       </c>
       <c r="C25">
-        <v>0.1299973759443418</v>
+        <v>0.04055222170103434</v>
       </c>
       <c r="D25">
-        <v>0.3074780416097838</v>
+        <v>0.3333667493907058</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6161438068525058</v>
+        <v>1.151173988905519</v>
       </c>
       <c r="G25">
-        <v>0.2926657821650096</v>
+        <v>0.5284622726681718</v>
       </c>
       <c r="H25">
-        <v>0.2634241678375062</v>
+        <v>0.673824410148832</v>
       </c>
       <c r="I25">
-        <v>0.2183204248278443</v>
+        <v>0.5271488134406539</v>
       </c>
       <c r="J25">
-        <v>0.2219351159516236</v>
+        <v>0.3133182448124643</v>
       </c>
       <c r="K25">
-        <v>0.963276102978682</v>
+        <v>0.3032904750681666</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4725848984486376</v>
+        <v>0.277791489799192</v>
       </c>
       <c r="N25">
-        <v>0.6915339306324348</v>
+        <v>1.460176154397708</v>
       </c>
       <c r="O25">
-        <v>1.120749208250956</v>
+        <v>2.373630128816231</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_180/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_180/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.254807068827688</v>
+        <v>0.7614865100703412</v>
       </c>
       <c r="C2">
-        <v>0.03462305078646466</v>
+        <v>0.111308560253562</v>
       </c>
       <c r="D2">
-        <v>0.3246647646638934</v>
+        <v>0.2674071483339731</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.153364769363847</v>
+        <v>0.5832445063975271</v>
       </c>
       <c r="G2">
-        <v>0.5311300121076172</v>
+        <v>0.280448594995427</v>
       </c>
       <c r="H2">
-        <v>0.6793994709831139</v>
+        <v>0.2645336829056717</v>
       </c>
       <c r="I2">
-        <v>0.5333842050699111</v>
+        <v>0.2227637678899725</v>
       </c>
       <c r="J2">
-        <v>0.3103747344763192</v>
+        <v>0.199991875197675</v>
       </c>
       <c r="K2">
-        <v>0.2564386480114536</v>
+        <v>0.8120431043401481</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.25780965298393</v>
+        <v>0.3981944183009034</v>
       </c>
       <c r="N2">
-        <v>1.478750237421423</v>
+        <v>0.7332776164089836</v>
       </c>
       <c r="O2">
-        <v>2.390655245230036</v>
+        <v>1.096748212686265</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2247976973724803</v>
+        <v>0.663869756734897</v>
       </c>
       <c r="C3">
-        <v>0.03057680516899097</v>
+        <v>0.09862496393770925</v>
       </c>
       <c r="D3">
-        <v>0.3190469541088419</v>
+        <v>0.2407067433062338</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.155981217636395</v>
+        <v>0.5629919004698252</v>
       </c>
       <c r="G3">
-        <v>0.5335638120934902</v>
+        <v>0.2734463805237368</v>
       </c>
       <c r="H3">
-        <v>0.6836822485096761</v>
+        <v>0.2660982578877906</v>
       </c>
       <c r="I3">
-        <v>0.538111486021382</v>
+        <v>0.226693245935266</v>
       </c>
       <c r="J3">
-        <v>0.3086961498681049</v>
+        <v>0.1857247796523467</v>
       </c>
       <c r="K3">
-        <v>0.2245925248018779</v>
+        <v>0.7094892288590557</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2444567547744541</v>
+        <v>0.3481554220899099</v>
       </c>
       <c r="N3">
-        <v>1.492251139426243</v>
+        <v>0.7633375819569093</v>
       </c>
       <c r="O3">
-        <v>2.404560657822174</v>
+        <v>1.084876302686212</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2063518030923035</v>
+        <v>0.6038857114774601</v>
       </c>
       <c r="C4">
-        <v>0.02807885534635091</v>
+        <v>0.09082287467144567</v>
       </c>
       <c r="D4">
-        <v>0.3157362711638712</v>
+        <v>0.2245148182965124</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.158146832517097</v>
+        <v>0.5514974051664439</v>
       </c>
       <c r="G4">
-        <v>0.535366901839744</v>
+        <v>0.2697327552547435</v>
       </c>
       <c r="H4">
-        <v>0.6865612490395776</v>
+        <v>0.2674405892699241</v>
       </c>
       <c r="I4">
-        <v>0.5412616103085988</v>
+        <v>0.2295351430396693</v>
       </c>
       <c r="J4">
-        <v>0.3078216805867342</v>
+        <v>0.1772367944438216</v>
       </c>
       <c r="K4">
-        <v>0.204994971019488</v>
+        <v>0.6464500158331958</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2363523195937347</v>
+        <v>0.3175836656506164</v>
       </c>
       <c r="N4">
-        <v>1.500991646582598</v>
+        <v>0.7826371484888242</v>
       </c>
       <c r="O4">
-        <v>2.414267410972485</v>
+        <v>1.079619891381171</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1988304514089521</v>
+        <v>0.5794250614999044</v>
       </c>
       <c r="C5">
-        <v>0.02705757542928211</v>
+        <v>0.08763915983624315</v>
       </c>
       <c r="D5">
-        <v>0.3144221657083648</v>
+        <v>0.2179642332780105</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.159170095550387</v>
+        <v>0.5470403937852524</v>
       </c>
       <c r="G5">
-        <v>0.5361793252204663</v>
+        <v>0.2683604501029606</v>
       </c>
       <c r="H5">
-        <v>0.6877972450058394</v>
+        <v>0.2680808592749742</v>
       </c>
       <c r="I5">
-        <v>0.5426075874177201</v>
+        <v>0.2307977761934783</v>
       </c>
       <c r="J5">
-        <v>0.3075046524996665</v>
+        <v>0.1738426814260379</v>
       </c>
       <c r="K5">
-        <v>0.196998308352903</v>
+        <v>0.6207380572564034</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2330736455981324</v>
+        <v>0.3051592859731613</v>
       </c>
       <c r="N5">
-        <v>1.504666908724419</v>
+        <v>0.7907093466146318</v>
       </c>
       <c r="O5">
-        <v>2.418517082629648</v>
+        <v>1.077970086046108</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.197581280609171</v>
+        <v>0.5753622459866961</v>
       </c>
       <c r="C6">
-        <v>0.02688779238856398</v>
+        <v>0.08711022700259718</v>
       </c>
       <c r="D6">
-        <v>0.3142060794191224</v>
+        <v>0.2168793099589124</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.159348513871947</v>
+        <v>0.5463137568938095</v>
       </c>
       <c r="G6">
-        <v>0.5363189178766632</v>
+        <v>0.2681409190915147</v>
       </c>
       <c r="H6">
-        <v>0.6880062752048559</v>
+        <v>0.2681927309179457</v>
       </c>
       <c r="I6">
-        <v>0.5428348479745715</v>
+        <v>0.2310136527438296</v>
       </c>
       <c r="J6">
-        <v>0.3074543868561008</v>
+        <v>0.1732829034340213</v>
       </c>
       <c r="K6">
-        <v>0.1956698502967242</v>
+        <v>0.616467073035011</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2325306777154879</v>
+        <v>0.3030981458252882</v>
       </c>
       <c r="N6">
-        <v>1.505284035939976</v>
+        <v>0.7920621337953211</v>
       </c>
       <c r="O6">
-        <v>2.419240505427751</v>
+        <v>1.07772532566814</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2062503850262374</v>
+        <v>0.6035559002964987</v>
       </c>
       <c r="C7">
-        <v>0.02806509547205849</v>
+        <v>0.09077995628787505</v>
       </c>
       <c r="D7">
-        <v>0.3157184066595562</v>
+        <v>0.2244262854510737</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.158160062458627</v>
+        <v>0.5514363890912719</v>
       </c>
       <c r="G7">
-        <v>0.53537754404163</v>
+        <v>0.2697136849517037</v>
       </c>
       <c r="H7">
-        <v>0.6865776638181487</v>
+        <v>0.2674488500799583</v>
       </c>
       <c r="I7">
-        <v>0.5412795104388337</v>
+        <v>0.2295517524617523</v>
       </c>
       <c r="J7">
-        <v>0.3078172457418589</v>
+        <v>0.177190762487399</v>
       </c>
       <c r="K7">
-        <v>0.2048871670307477</v>
+        <v>0.6461033550060478</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.236308004966304</v>
+        <v>0.3174159747703769</v>
       </c>
       <c r="N7">
-        <v>1.5010407530902</v>
+        <v>0.7827451786450332</v>
       </c>
       <c r="O7">
-        <v>2.41432353251075</v>
+        <v>1.079595673057028</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.244464303735441</v>
+        <v>0.7278349678448421</v>
       </c>
       <c r="C8">
-        <v>0.03323074967494222</v>
+        <v>0.1069377870243358</v>
       </c>
       <c r="D8">
-        <v>0.3226990513596206</v>
+        <v>0.2581569626117641</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.154150975961521</v>
+        <v>0.5760603516452676</v>
       </c>
       <c r="G8">
-        <v>0.5319051200499985</v>
+        <v>0.2779088034288435</v>
       </c>
       <c r="H8">
-        <v>0.6808244644414003</v>
+        <v>0.264992261579529</v>
       </c>
       <c r="I8">
-        <v>0.5349628074344785</v>
+        <v>0.2240274985294128</v>
       </c>
       <c r="J8">
-        <v>0.3097635705930841</v>
+        <v>0.1950138916205049</v>
       </c>
       <c r="K8">
-        <v>0.2454675317776349</v>
+        <v>0.776693965678362</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.253186139906262</v>
+        <v>0.3809065802277587</v>
       </c>
       <c r="N8">
-        <v>1.483311796858032</v>
+        <v>0.7434646969947369</v>
       </c>
       <c r="O8">
-        <v>2.39520736665925</v>
+        <v>1.092221159094478</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3192229092908008</v>
+        <v>0.9714169355074489</v>
       </c>
       <c r="C9">
-        <v>0.04325100525190351</v>
+        <v>0.1385449858113077</v>
       </c>
       <c r="D9">
-        <v>0.3374826234085901</v>
+        <v>0.3260567448534033</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.150719107083795</v>
+        <v>0.6322599693883291</v>
       </c>
       <c r="G9">
-        <v>0.5275449638985066</v>
+        <v>0.2989232207267563</v>
       </c>
       <c r="H9">
-        <v>0.6715176957640949</v>
+        <v>0.2633315087873456</v>
       </c>
       <c r="I9">
-        <v>0.5245388688980164</v>
+        <v>0.2167586186642723</v>
       </c>
       <c r="J9">
-        <v>0.3148179406746578</v>
+        <v>0.232295602632135</v>
       </c>
       <c r="K9">
-        <v>0.3246771023196118</v>
+        <v>1.032480993442903</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2870237038041239</v>
+        <v>0.506837981494094</v>
       </c>
       <c r="N9">
-        <v>1.452120271055499</v>
+        <v>0.6733271414567312</v>
       </c>
       <c r="O9">
-        <v>2.366986896569671</v>
+        <v>1.134007136547169</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3740174729719854</v>
+        <v>1.150673426559479</v>
       </c>
       <c r="C10">
-        <v>0.05054385921468452</v>
+        <v>0.1617736077807734</v>
       </c>
       <c r="D10">
-        <v>0.3490050466172079</v>
+        <v>0.3772341953612823</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.150891282701956</v>
+        <v>0.6790291367090475</v>
       </c>
       <c r="G10">
-        <v>0.5258348576521925</v>
+        <v>0.317808214396976</v>
       </c>
       <c r="H10">
-        <v>0.6658798322307575</v>
+        <v>0.2642225179174602</v>
       </c>
       <c r="I10">
-        <v>0.5180756500313386</v>
+        <v>0.2138210813968193</v>
       </c>
       <c r="J10">
-        <v>0.3192844895873606</v>
+        <v>0.2613602781378574</v>
       </c>
       <c r="K10">
-        <v>0.3826262996229843</v>
+        <v>1.220625636880044</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3123260921825164</v>
+        <v>0.6005557896240887</v>
       </c>
       <c r="N10">
-        <v>1.431378778193768</v>
+        <v>0.6262933470010807</v>
       </c>
       <c r="O10">
-        <v>2.351893896081776</v>
+        <v>1.176395099974272</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3989123002062627</v>
+        <v>1.232375874612728</v>
       </c>
       <c r="C11">
-        <v>0.05384614460081139</v>
+        <v>0.1723555431549642</v>
       </c>
       <c r="D11">
-        <v>0.3543891471336735</v>
+        <v>0.4008486866798364</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.151553093930985</v>
+        <v>0.701648725045807</v>
       </c>
       <c r="G11">
-        <v>0.5253812195225578</v>
+        <v>0.3272485365362598</v>
       </c>
       <c r="H11">
-        <v>0.6635746485373915</v>
+        <v>0.2651299642967899</v>
       </c>
       <c r="I11">
-        <v>0.5153945912105655</v>
+        <v>0.2130600249495878</v>
       </c>
       <c r="J11">
-        <v>0.3214797210896592</v>
+        <v>0.2750053626108837</v>
       </c>
       <c r="K11">
-        <v>0.4089312110776291</v>
+        <v>1.306360772912655</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3239310139986458</v>
+        <v>0.6435272212576422</v>
       </c>
       <c r="N11">
-        <v>1.42241426594699</v>
+        <v>0.6059414995468586</v>
       </c>
       <c r="O11">
-        <v>2.346250842878959</v>
+        <v>1.19852182861311</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4083343139357112</v>
+        <v>1.2633447362646</v>
       </c>
       <c r="C12">
-        <v>0.05509438603880312</v>
+        <v>0.1763659547697642</v>
       </c>
       <c r="D12">
-        <v>0.3564483179050342</v>
+        <v>0.4098433425856172</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.151887466922318</v>
+        <v>0.7104208946394692</v>
       </c>
       <c r="G12">
-        <v>0.5252560674900622</v>
+        <v>0.3309543652663223</v>
       </c>
       <c r="H12">
-        <v>0.6627389800674308</v>
+        <v>0.2655496559569883</v>
       </c>
       <c r="I12">
-        <v>0.5144165791618889</v>
+        <v>0.2128592782519299</v>
       </c>
       <c r="J12">
-        <v>0.3223344528100682</v>
+        <v>0.2802384857056381</v>
       </c>
       <c r="K12">
-        <v>0.418883592462123</v>
+        <v>1.338855754528822</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.328338910287016</v>
+        <v>0.6598547280464686</v>
       </c>
       <c r="N12">
-        <v>1.419087306475603</v>
+        <v>0.5983910862804898</v>
       </c>
       <c r="O12">
-        <v>2.344289650535643</v>
+        <v>1.207336556990185</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4063053516476316</v>
+        <v>1.256673586811189</v>
       </c>
       <c r="C13">
-        <v>0.05482565658900285</v>
+        <v>0.1755020775559331</v>
       </c>
       <c r="D13">
-        <v>0.3560039370868822</v>
+        <v>0.4079037811145838</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.151811730815695</v>
+        <v>0.7085222405263778</v>
       </c>
       <c r="G13">
-        <v>0.525280947349458</v>
+        <v>0.3301502770618043</v>
       </c>
       <c r="H13">
-        <v>0.6629173003102551</v>
+        <v>0.2654558211671514</v>
       </c>
       <c r="I13">
-        <v>0.514625555162354</v>
+        <v>0.2128985452126493</v>
       </c>
       <c r="J13">
-        <v>0.3221493290801618</v>
+        <v>0.2791084173456255</v>
       </c>
       <c r="K13">
-        <v>0.4167405662988415</v>
+        <v>1.331855961749</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3273890007077185</v>
+        <v>0.6563357470837232</v>
       </c>
       <c r="N13">
-        <v>1.419800815547948</v>
+        <v>0.6000101441229049</v>
       </c>
       <c r="O13">
-        <v>2.344704215782144</v>
+        <v>1.205418320743462</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3996875608699497</v>
+        <v>1.234923058738559</v>
       </c>
       <c r="C14">
-        <v>0.05394888389865571</v>
+        <v>0.1726854102191311</v>
       </c>
       <c r="D14">
-        <v>0.3545581498609067</v>
+        <v>0.4015876069973103</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.151578925169659</v>
+        <v>0.7023661964771009</v>
       </c>
       <c r="G14">
-        <v>0.5253699886549157</v>
+        <v>0.3275507397640069</v>
       </c>
       <c r="H14">
-        <v>0.6635051513093373</v>
+        <v>0.2651629453023219</v>
       </c>
       <c r="I14">
-        <v>0.5153133831500583</v>
+        <v>0.2130417287665445</v>
       </c>
       <c r="J14">
-        <v>0.3215495707833043</v>
+        <v>0.2754345410009051</v>
       </c>
       <c r="K14">
-        <v>0.4097501776233798</v>
+        <v>1.309033527988021</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3242933879259695</v>
+        <v>0.6448693512211108</v>
       </c>
       <c r="N14">
-        <v>1.422139198080938</v>
+        <v>0.6053171511685775</v>
       </c>
       <c r="O14">
-        <v>2.346085973684069</v>
+        <v>1.199238128045323</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3956332890817293</v>
+        <v>1.221604351385309</v>
       </c>
       <c r="C15">
-        <v>0.05341153870723758</v>
+        <v>0.1709605787180521</v>
       </c>
       <c r="D15">
-        <v>0.3536752060417712</v>
+        <v>0.3977257214880296</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.151447228613549</v>
+        <v>0.6986227594434027</v>
       </c>
       <c r="G15">
-        <v>0.525430601650541</v>
+        <v>0.3259757769484111</v>
       </c>
       <c r="H15">
-        <v>0.6638700768148027</v>
+        <v>0.2649935741308553</v>
       </c>
       <c r="I15">
-        <v>0.5157395479698579</v>
+        <v>0.2131409660904779</v>
       </c>
       <c r="J15">
-        <v>0.3211852533293609</v>
+        <v>0.2731929419642114</v>
       </c>
       <c r="K15">
-        <v>0.4054672096765728</v>
+        <v>1.29505813810627</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3223989684330704</v>
+        <v>0.6378532342466841</v>
       </c>
       <c r="N15">
-        <v>1.423580342129782</v>
+        <v>0.6085884042730356</v>
       </c>
       <c r="O15">
-        <v>2.346955218923654</v>
+        <v>1.195510160214411</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3723898534397279</v>
+        <v>1.145337761218741</v>
       </c>
       <c r="C16">
-        <v>0.05032773413499569</v>
+        <v>0.1610824488013236</v>
       </c>
       <c r="D16">
-        <v>0.3486560365063127</v>
+        <v>0.3756980151837155</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.150859760635882</v>
+        <v>0.6775790629629981</v>
       </c>
       <c r="G16">
-        <v>0.525871029451757</v>
+        <v>0.3172091038536493</v>
       </c>
       <c r="H16">
-        <v>0.6660356980395079</v>
+        <v>0.2641736427699328</v>
       </c>
       <c r="I16">
-        <v>0.51825607623746</v>
+        <v>0.2138827919938215</v>
       </c>
       <c r="J16">
-        <v>0.3191443094902269</v>
+        <v>0.2604774923208595</v>
       </c>
       <c r="K16">
-        <v>0.3809060244237514</v>
+        <v>1.21502625890011</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3115695675056074</v>
+        <v>0.5977548637588583</v>
       </c>
       <c r="N16">
-        <v>1.431974105100135</v>
+        <v>0.627644924233401</v>
       </c>
       <c r="O16">
-        <v>2.352287278068019</v>
+        <v>1.175008557070143</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3581222735876111</v>
+        <v>1.098596079941132</v>
       </c>
       <c r="C17">
-        <v>0.04843196147760409</v>
+        <v>0.1550271569103217</v>
       </c>
       <c r="D17">
-        <v>0.3456133195666382</v>
+        <v>0.3622732186975668</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.150648710053837</v>
+        <v>0.6650229408832473</v>
       </c>
       <c r="G17">
-        <v>0.5262242763393346</v>
+        <v>0.312054725040305</v>
       </c>
       <c r="H17">
-        <v>0.6674306583942453</v>
+        <v>0.2638019215172207</v>
       </c>
       <c r="I17">
-        <v>0.5198662371104028</v>
+        <v>0.2144884959548996</v>
       </c>
       <c r="J17">
-        <v>0.3179340670062771</v>
+        <v>0.2527889836664343</v>
       </c>
       <c r="K17">
-        <v>0.3658236446810861</v>
+        <v>1.16597236117363</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.304950161541214</v>
+        <v>0.5732470319576564</v>
       </c>
       <c r="N17">
-        <v>1.437244008693838</v>
+        <v>0.6396072352296009</v>
       </c>
       <c r="O17">
-        <v>2.35587142585095</v>
+        <v>1.1631785655957</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.349913009769466</v>
+        <v>1.071725889977586</v>
       </c>
       <c r="C18">
-        <v>0.04734012983325897</v>
+        <v>0.151545666263857</v>
       </c>
       <c r="D18">
-        <v>0.3438766510071076</v>
+        <v>0.3545827544640332</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.15058224870166</v>
+        <v>0.6579266573455484</v>
       </c>
       <c r="G18">
-        <v>0.5264579792532373</v>
+        <v>0.3091694582308548</v>
       </c>
       <c r="H18">
-        <v>0.6682574326004271</v>
+        <v>0.2636351355762088</v>
       </c>
       <c r="I18">
-        <v>0.520816746631855</v>
+        <v>0.2148907273938256</v>
       </c>
       <c r="J18">
-        <v>0.3172533481675259</v>
+        <v>0.24840628550389</v>
       </c>
       <c r="K18">
-        <v>0.3571433793660219</v>
+        <v>1.137771214117066</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3011517870706015</v>
+        <v>0.5591822486991163</v>
       </c>
       <c r="N18">
-        <v>1.440319441222044</v>
+        <v>0.6465855178945965</v>
       </c>
       <c r="O18">
-        <v>2.358048039192738</v>
+        <v>1.15664028536257</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.347133008912266</v>
+        <v>1.062630364212623</v>
       </c>
       <c r="C19">
-        <v>0.04697021024685455</v>
+        <v>0.1503670939203516</v>
       </c>
       <c r="D19">
-        <v>0.3432909549832175</v>
+        <v>0.3519841113893705</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.150569184618114</v>
+        <v>0.6555451665650551</v>
       </c>
       <c r="G19">
-        <v>0.526542349755232</v>
+        <v>0.3082059317085637</v>
       </c>
       <c r="H19">
-        <v>0.6685415619092012</v>
+        <v>0.2635866262457398</v>
       </c>
       <c r="I19">
-        <v>0.5211427617280648</v>
+        <v>0.2150360243356886</v>
       </c>
       <c r="J19">
-        <v>0.3170255115591374</v>
+        <v>0.2469290166887674</v>
       </c>
       <c r="K19">
-        <v>0.3542035021378922</v>
+        <v>1.128224856075576</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2998672648300342</v>
+        <v>0.5544253703624307</v>
       </c>
       <c r="N19">
-        <v>1.441368342681887</v>
+        <v>0.648964870024713</v>
       </c>
       <c r="O19">
-        <v>2.358804776697468</v>
+        <v>1.154471432557898</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3596413892452972</v>
+        <v>1.103570271684731</v>
       </c>
       <c r="C20">
-        <v>0.04863391854107135</v>
+        <v>0.1556716054076048</v>
       </c>
       <c r="D20">
-        <v>0.3459358340471255</v>
+        <v>0.3636990590555484</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.150665492816849</v>
+        <v>0.6663464613265049</v>
       </c>
       <c r="G20">
-        <v>0.5261835134366564</v>
+        <v>0.3125951379356096</v>
       </c>
       <c r="H20">
-        <v>0.6672796345323206</v>
+        <v>0.2638365984352404</v>
       </c>
       <c r="I20">
-        <v>0.5196923087891143</v>
+        <v>0.2144184113883973</v>
       </c>
       <c r="J20">
-        <v>0.3180613078946237</v>
+        <v>0.2536033112240261</v>
       </c>
       <c r="K20">
-        <v>0.3674297404772346</v>
+        <v>1.171192795223249</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3056538859729088</v>
+        <v>0.575852629679936</v>
       </c>
       <c r="N20">
-        <v>1.436678431219548</v>
+        <v>0.6383236525995422</v>
       </c>
       <c r="O20">
-        <v>2.355477975079054</v>
+        <v>1.164410167151672</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4016315100030567</v>
+        <v>1.241310844051469</v>
       </c>
       <c r="C21">
-        <v>0.05420647522026911</v>
+        <v>0.1735126360660075</v>
       </c>
       <c r="D21">
-        <v>0.3549822621890257</v>
+        <v>0.403441363138711</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.151645033786451</v>
+        <v>0.7041686579355542</v>
       </c>
       <c r="G21">
-        <v>0.5253425695416212</v>
+        <v>0.3283106590769762</v>
       </c>
       <c r="H21">
-        <v>0.6633314746395627</v>
+        <v>0.2652468739001534</v>
       </c>
       <c r="I21">
-        <v>0.5151103406138233</v>
+        <v>0.2129972599523917</v>
       </c>
       <c r="J21">
-        <v>0.3217250984231725</v>
+        <v>0.2765118131214592</v>
       </c>
       <c r="K21">
-        <v>0.4118036655859214</v>
+        <v>1.315736179719408</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3252022838048489</v>
+        <v>0.6482357592331311</v>
       </c>
       <c r="N21">
-        <v>1.421450520956274</v>
+        <v>0.60375405862845</v>
       </c>
       <c r="O21">
-        <v>2.3456753502455</v>
+        <v>1.201041351046115</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4290443820277119</v>
+        <v>1.331510366827899</v>
       </c>
       <c r="C22">
-        <v>0.05783524545302043</v>
+        <v>0.1851923623817697</v>
       </c>
       <c r="D22">
-        <v>0.3610130421593851</v>
+        <v>0.4297226784868826</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.152773366551699</v>
+        <v>0.7300987635903198</v>
       </c>
       <c r="G22">
-        <v>0.5250647628137273</v>
+        <v>0.3393496063864063</v>
       </c>
       <c r="H22">
-        <v>0.6609682432155921</v>
+        <v>0.2666138690885447</v>
       </c>
       <c r="I22">
-        <v>0.5123328571934245</v>
+        <v>0.212580560675562</v>
       </c>
       <c r="J22">
-        <v>0.3242562312081816</v>
+        <v>0.2918713037047667</v>
       </c>
       <c r="K22">
-        <v>0.4407534999309348</v>
+        <v>1.410376363196065</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3380560681945255</v>
+        <v>0.695867113415737</v>
       </c>
       <c r="N22">
-        <v>1.411892846053952</v>
+        <v>0.5820755420943939</v>
       </c>
       <c r="O22">
-        <v>2.340292875457692</v>
+        <v>1.227535801407072</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4144165648078513</v>
+        <v>1.283350369777992</v>
       </c>
       <c r="C23">
-        <v>0.05589973388474334</v>
+        <v>0.1789564993189288</v>
       </c>
       <c r="D23">
-        <v>0.357783519791667</v>
+        <v>0.41566619873646</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.152126536950107</v>
+        <v>0.7161439461776737</v>
       </c>
       <c r="G23">
-        <v>0.5251881649706576</v>
+        <v>0.3333845913741271</v>
       </c>
       <c r="H23">
-        <v>0.6622096984500416</v>
+        <v>0.2658421992595237</v>
       </c>
       <c r="I23">
-        <v>0.5137953913538098</v>
+        <v>0.2127544712591636</v>
       </c>
       <c r="J23">
-        <v>0.322892832004726</v>
+        <v>0.2836364218804874</v>
       </c>
       <c r="K23">
-        <v>0.4253073008272565</v>
+        <v>1.359846598390448</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3311887308019195</v>
+        <v>0.6704134060435791</v>
       </c>
       <c r="N23">
-        <v>1.41695784898625</v>
+        <v>0.5935599209312379</v>
       </c>
       <c r="O23">
-        <v>2.343071941465666</v>
+        <v>1.213152264465919</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.35895461770113</v>
+        <v>1.101321433207204</v>
       </c>
       <c r="C24">
-        <v>0.04854261974917051</v>
+        <v>0.1553802510172488</v>
       </c>
       <c r="D24">
-        <v>0.3457899858973974</v>
+        <v>0.3630543508968742</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.15065773439013</v>
+        <v>0.6657477174912216</v>
       </c>
       <c r="G24">
-        <v>0.5262018469770808</v>
+        <v>0.3123505748064233</v>
       </c>
       <c r="H24">
-        <v>0.6673478351874778</v>
+        <v>0.263820775139493</v>
       </c>
       <c r="I24">
-        <v>0.5197708645120898</v>
+        <v>0.2144499287646973</v>
       </c>
       <c r="J24">
-        <v>0.3180037353581895</v>
+        <v>0.2532350372292029</v>
       </c>
       <c r="K24">
-        <v>0.3667036531923884</v>
+        <v>1.16883263572646</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3053357096793334</v>
+        <v>0.5746745612649562</v>
       </c>
       <c r="N24">
-        <v>1.436933986459064</v>
+        <v>0.6389036462123023</v>
       </c>
       <c r="O24">
-        <v>2.355655492711207</v>
+        <v>1.163852543100901</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2990200967434475</v>
+        <v>0.9054979786617139</v>
       </c>
       <c r="C25">
-        <v>0.04055222170103434</v>
+        <v>0.1299973759445692</v>
       </c>
       <c r="D25">
-        <v>0.3333667493907058</v>
+        <v>0.3074780416094995</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.151173988905519</v>
+        <v>0.61614380685252</v>
       </c>
       <c r="G25">
-        <v>0.5284622726681718</v>
+        <v>0.2926657821650238</v>
       </c>
       <c r="H25">
-        <v>0.673824410148832</v>
+        <v>0.2634241678373854</v>
       </c>
       <c r="I25">
-        <v>0.5271488134406539</v>
+        <v>0.2183204248278408</v>
       </c>
       <c r="J25">
-        <v>0.3133182448124643</v>
+        <v>0.221935115951446</v>
       </c>
       <c r="K25">
-        <v>0.3032904750681666</v>
+        <v>0.9632761029785968</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.277791489799192</v>
+        <v>0.4725848984486589</v>
       </c>
       <c r="N25">
-        <v>1.460176154397708</v>
+        <v>0.6915339306323673</v>
       </c>
       <c r="O25">
-        <v>2.373630128816231</v>
+        <v>1.120749208250899</v>
       </c>
     </row>
   </sheetData>
